--- a/public/contenido-sig/archivos/SubdirecciÃ³n de VinculaciÃ³n y Apoyo/Procedimiento para auditorÃ­as internas/Plan de Auditoria.xlsx
+++ b/public/contenido-sig/archivos/SubdirecciÃ³n de VinculaciÃ³n y Apoyo/Procedimiento para auditorÃ­as internas/Plan de Auditoria.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="120" yWindow="135" windowWidth="11580" windowHeight="6285" activeTab="1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>(Ver matriz de auditoría)</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>F-SV-PLA_AUD</t>
+  </si>
+  <si>
+    <t>F-SV-PLAN_AUD</t>
   </si>
 </sst>
 </file>
@@ -804,7 +807,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -981,6 +984,117 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -990,21 +1104,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1014,24 +1113,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1041,173 +1125,95 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1875,343 +1881,343 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
       <c r="J2" s="58"/>
     </row>
     <row r="3" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="97" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
       <c r="J3" s="58"/>
     </row>
     <row r="4" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
       <c r="J4" s="59"/>
     </row>
     <row r="5" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="83" t="s">
+      <c r="B5" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="98"/>
+      <c r="I5" s="98"/>
       <c r="J5" s="59"/>
     </row>
     <row r="6" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="83"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
       <c r="J6" s="60"/>
     </row>
     <row r="7" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="82"/>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="82"/>
+      <c r="B7" s="97"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="97"/>
+      <c r="I7" s="97"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="84" t="s">
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="85"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="85"/>
-      <c r="I8" s="86"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="93"/>
+      <c r="I8" s="94"/>
     </row>
     <row r="9" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="65"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="64"/>
+      <c r="B9" s="77"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="100"/>
+      <c r="I9" s="101"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="68"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="73" t="s">
+      <c r="C10" s="63"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="76"/>
     </row>
     <row r="11" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="70"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="77"/>
-      <c r="H11" s="77"/>
-      <c r="I11" s="78"/>
+      <c r="B11" s="102"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="105"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="90"/>
+      <c r="H11" s="90"/>
+      <c r="I11" s="91"/>
     </row>
     <row r="12" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="70"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="80"/>
-      <c r="H12" s="80"/>
-      <c r="I12" s="81"/>
+      <c r="B12" s="102"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="104"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="107"/>
+      <c r="G12" s="107"/>
+      <c r="H12" s="107"/>
+      <c r="I12" s="108"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B13" s="84" t="s">
+      <c r="B13" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="85"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="68" t="s">
+      <c r="C13" s="93"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="69"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="64"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B14" s="90"/>
-      <c r="C14" s="91"/>
-      <c r="D14" s="92"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="91"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="91"/>
-      <c r="I14" s="93"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="89"/>
       <c r="L14" s="61"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B15" s="87"/>
-      <c r="C15" s="88"/>
-      <c r="D15" s="89"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="78"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="91"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B16" s="87"/>
-      <c r="C16" s="88"/>
-      <c r="D16" s="89"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="77"/>
-      <c r="I16" s="78"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="91"/>
       <c r="K16" s="5"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B17" s="87"/>
-      <c r="C17" s="88"/>
-      <c r="D17" s="89"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="78"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="90"/>
+      <c r="I17" s="91"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B18" s="87"/>
-      <c r="C18" s="88"/>
-      <c r="D18" s="89"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="77"/>
-      <c r="H18" s="77"/>
-      <c r="I18" s="78"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="90"/>
+      <c r="F18" s="90"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="90"/>
+      <c r="I18" s="91"/>
     </row>
     <row r="19" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="95"/>
-      <c r="C19" s="96"/>
-      <c r="D19" s="97"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="77"/>
-      <c r="I19" s="78"/>
+      <c r="B19" s="81"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="90"/>
+      <c r="G19" s="90"/>
+      <c r="H19" s="90"/>
+      <c r="I19" s="91"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B20" s="73" t="s">
+      <c r="B20" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="74"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="98" t="s">
+      <c r="C20" s="75"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="99"/>
-      <c r="G20" s="99"/>
-      <c r="H20" s="99"/>
-      <c r="I20" s="100"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="85"/>
+      <c r="I20" s="86"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B21" s="101"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="101" t="s">
+      <c r="B21" s="87"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="102"/>
-      <c r="G21" s="102"/>
-      <c r="H21" s="102"/>
-      <c r="I21" s="103"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="70"/>
     </row>
     <row r="22" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="104"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="94"/>
-      <c r="E22" s="65" t="s">
+      <c r="B22" s="71"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="F22" s="66"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="94"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="73"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B23" s="67" t="s">
+      <c r="B23" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="68"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="68"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="69"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="64"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B24" s="108"/>
-      <c r="C24" s="102"/>
-      <c r="D24" s="103"/>
-      <c r="E24" s="108"/>
-      <c r="F24" s="102"/>
-      <c r="G24" s="102"/>
-      <c r="H24" s="102"/>
-      <c r="I24" s="103"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="70"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B25" s="108"/>
-      <c r="C25" s="102"/>
-      <c r="D25" s="103"/>
-      <c r="E25" s="108"/>
-      <c r="F25" s="102"/>
-      <c r="G25" s="102"/>
-      <c r="H25" s="102"/>
-      <c r="I25" s="103"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="69"/>
+      <c r="I25" s="70"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B26" s="108"/>
-      <c r="C26" s="102"/>
-      <c r="D26" s="103"/>
-      <c r="E26" s="108"/>
-      <c r="F26" s="102"/>
-      <c r="G26" s="102"/>
-      <c r="H26" s="102"/>
-      <c r="I26" s="103"/>
+      <c r="B26" s="68"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="69"/>
+      <c r="I26" s="70"/>
     </row>
     <row r="27" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="104"/>
-      <c r="C27" s="66"/>
-      <c r="D27" s="94"/>
-      <c r="E27" s="104"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="66"/>
-      <c r="I27" s="94"/>
+      <c r="B27" s="71"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="73"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B28" s="73" t="s">
+      <c r="B28" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="74"/>
-      <c r="D28" s="74"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="74"/>
-      <c r="H28" s="74"/>
-      <c r="I28" s="75"/>
+      <c r="C28" s="75"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="75"/>
+      <c r="G28" s="75"/>
+      <c r="H28" s="75"/>
+      <c r="I28" s="76"/>
     </row>
     <row r="29" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="105"/>
-      <c r="C29" s="106"/>
-      <c r="D29" s="106"/>
-      <c r="E29" s="106"/>
-      <c r="F29" s="106"/>
-      <c r="G29" s="106"/>
-      <c r="H29" s="106"/>
-      <c r="I29" s="107"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="66"/>
+      <c r="I29" s="67"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B30" s="67" t="s">
+      <c r="B30" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="68"/>
-      <c r="D30" s="68"/>
-      <c r="E30" s="68"/>
-      <c r="F30" s="68"/>
-      <c r="G30" s="68"/>
-      <c r="H30" s="68"/>
-      <c r="I30" s="69"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="64"/>
     </row>
     <row r="31" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="105"/>
-      <c r="C31" s="106"/>
-      <c r="D31" s="106"/>
-      <c r="E31" s="106"/>
-      <c r="F31" s="106"/>
-      <c r="G31" s="106"/>
-      <c r="H31" s="106"/>
-      <c r="I31" s="107"/>
+      <c r="B31" s="65"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="67"/>
     </row>
     <row r="34" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I34" t="s">
@@ -2220,6 +2226,40 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D12"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="E11:I12"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
     <mergeCell ref="B30:I30"/>
     <mergeCell ref="B31:I31"/>
     <mergeCell ref="E23:I23"/>
@@ -2234,40 +2274,6 @@
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D12"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="E11:I12"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2304,64 +2310,64 @@
   <sheetData>
     <row r="1" spans="1:19" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
       <c r="I2" s="58"/>
     </row>
     <row r="3" spans="1:19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="97" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
       <c r="I3" s="58"/>
     </row>
     <row r="4" spans="1:19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="82"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
+      <c r="A4" s="97"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
       <c r="I4" s="59"/>
     </row>
     <row r="5" spans="1:19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="83" t="s">
+      <c r="A5" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
+      <c r="B5" s="98"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="98"/>
       <c r="I5" s="60"/>
     </row>
     <row r="6" spans="1:19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="82"/>
-      <c r="B6" s="82"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="82"/>
+      <c r="A6" s="97"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
     </row>
     <row r="7" spans="1:19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="57"/>
@@ -2380,16 +2386,16 @@
       </c>
     </row>
     <row r="9" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="127" t="s">
+      <c r="B9" s="115" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="128"/>
-      <c r="D9" s="129" t="s">
+      <c r="C9" s="116"/>
+      <c r="D9" s="117" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="130"/>
-      <c r="F9" s="130"/>
-      <c r="G9" s="131"/>
+      <c r="E9" s="118"/>
+      <c r="F9" s="118"/>
+      <c r="G9" s="119"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
@@ -2404,14 +2410,14 @@
       <c r="S9" s="6"/>
     </row>
     <row r="10" spans="1:19" s="1" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="135" t="s">
+      <c r="B10" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="136"/>
-      <c r="D10" s="132"/>
-      <c r="E10" s="133"/>
-      <c r="F10" s="133"/>
-      <c r="G10" s="134"/>
+      <c r="C10" s="124"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="121"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="122"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
@@ -2501,10 +2507,10 @@
         <v>2</v>
       </c>
       <c r="C14" s="12"/>
-      <c r="D14" s="137"/>
-      <c r="E14" s="113"/>
-      <c r="F14" s="113"/>
-      <c r="G14" s="115"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="126"/>
+      <c r="F14" s="126"/>
+      <c r="G14" s="128"/>
       <c r="H14" s="4"/>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
@@ -2522,10 +2528,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="12"/>
-      <c r="D15" s="137"/>
-      <c r="E15" s="114"/>
-      <c r="F15" s="114"/>
-      <c r="G15" s="115"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="127"/>
+      <c r="F15" s="127"/>
+      <c r="G15" s="128"/>
       <c r="H15" s="4"/>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
@@ -2543,10 +2549,10 @@
         <v>4</v>
       </c>
       <c r="C16" s="12"/>
-      <c r="D16" s="110"/>
-      <c r="E16" s="113"/>
-      <c r="F16" s="113"/>
-      <c r="G16" s="116"/>
+      <c r="D16" s="135"/>
+      <c r="E16" s="126"/>
+      <c r="F16" s="126"/>
+      <c r="G16" s="129"/>
       <c r="H16" s="4"/>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
@@ -2564,10 +2570,10 @@
         <v>5</v>
       </c>
       <c r="C17" s="12"/>
-      <c r="D17" s="112"/>
-      <c r="E17" s="114"/>
-      <c r="F17" s="114"/>
-      <c r="G17" s="117"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="127"/>
+      <c r="F17" s="127"/>
+      <c r="G17" s="130"/>
       <c r="H17" s="4"/>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
@@ -2585,9 +2591,9 @@
         <v>6</v>
       </c>
       <c r="C18" s="12"/>
-      <c r="D18" s="110"/>
-      <c r="E18" s="113"/>
-      <c r="F18" s="113"/>
+      <c r="D18" s="135"/>
+      <c r="E18" s="126"/>
+      <c r="F18" s="126"/>
       <c r="G18" s="14"/>
       <c r="H18" s="4"/>
       <c r="I18" s="10"/>
@@ -2606,9 +2612,9 @@
         <v>7</v>
       </c>
       <c r="C19" s="12"/>
-      <c r="D19" s="112"/>
-      <c r="E19" s="114"/>
-      <c r="F19" s="114"/>
+      <c r="D19" s="136"/>
+      <c r="E19" s="127"/>
+      <c r="F19" s="127"/>
       <c r="G19" s="14"/>
       <c r="H19" s="4"/>
       <c r="I19" s="10"/>
@@ -2627,9 +2633,9 @@
         <v>8</v>
       </c>
       <c r="C20" s="12"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="113"/>
-      <c r="F20" s="113"/>
+      <c r="D20" s="135"/>
+      <c r="E20" s="126"/>
+      <c r="F20" s="126"/>
       <c r="G20" s="14"/>
       <c r="H20" s="4"/>
       <c r="I20" s="10"/>
@@ -2648,9 +2654,9 @@
         <v>9</v>
       </c>
       <c r="C21" s="12"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="114"/>
-      <c r="F21" s="114"/>
+      <c r="D21" s="136"/>
+      <c r="E21" s="127"/>
+      <c r="F21" s="127"/>
       <c r="G21" s="14"/>
       <c r="H21" s="4"/>
       <c r="I21" s="10"/>
@@ -2727,16 +2733,16 @@
       <c r="S25" s="10"/>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B26" s="121" t="s">
+      <c r="B26" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="122"/>
-      <c r="D26" s="121" t="s">
+      <c r="C26" s="110"/>
+      <c r="D26" s="109" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="123"/>
-      <c r="F26" s="123"/>
-      <c r="G26" s="122"/>
+      <c r="E26" s="111"/>
+      <c r="F26" s="111"/>
+      <c r="G26" s="110"/>
       <c r="H26" s="4"/>
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
@@ -2751,14 +2757,14 @@
       <c r="S26" s="10"/>
     </row>
     <row r="27" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="124" t="s">
+      <c r="B27" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="126"/>
-      <c r="D27" s="124"/>
-      <c r="E27" s="125"/>
-      <c r="F27" s="125"/>
-      <c r="G27" s="126"/>
+      <c r="C27" s="114"/>
+      <c r="D27" s="112"/>
+      <c r="E27" s="113"/>
+      <c r="F27" s="113"/>
+      <c r="G27" s="114"/>
       <c r="H27" s="4"/>
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
@@ -2810,8 +2816,8 @@
       </c>
       <c r="C29" s="52"/>
       <c r="D29" s="53"/>
-      <c r="E29" s="119"/>
-      <c r="F29" s="119"/>
+      <c r="E29" s="132"/>
+      <c r="F29" s="132"/>
       <c r="G29" s="54"/>
       <c r="H29" s="4"/>
       <c r="I29" s="10"/>
@@ -2822,8 +2828,8 @@
       </c>
       <c r="C30" s="31"/>
       <c r="D30" s="20"/>
-      <c r="E30" s="111"/>
-      <c r="F30" s="111"/>
+      <c r="E30" s="133"/>
+      <c r="F30" s="133"/>
       <c r="G30" s="55"/>
       <c r="H30" s="4"/>
       <c r="I30" s="10"/>
@@ -2834,8 +2840,8 @@
       </c>
       <c r="C31" s="12"/>
       <c r="D31" s="20"/>
-      <c r="E31" s="111"/>
-      <c r="F31" s="111"/>
+      <c r="E31" s="133"/>
+      <c r="F31" s="133"/>
       <c r="G31" s="14"/>
       <c r="H31" s="4"/>
       <c r="I31" s="10"/>
@@ -2846,8 +2852,8 @@
       </c>
       <c r="C32" s="19"/>
       <c r="D32" s="20"/>
-      <c r="E32" s="111"/>
-      <c r="F32" s="111"/>
+      <c r="E32" s="133"/>
+      <c r="F32" s="133"/>
       <c r="G32" s="22"/>
       <c r="H32" s="4"/>
       <c r="I32" s="10"/>
@@ -2858,8 +2864,8 @@
       </c>
       <c r="C33" s="12"/>
       <c r="D33" s="20"/>
-      <c r="E33" s="120"/>
-      <c r="F33" s="120"/>
+      <c r="E33" s="134"/>
+      <c r="F33" s="134"/>
       <c r="G33" s="14"/>
       <c r="H33" s="4"/>
       <c r="I33" s="10"/>
@@ -2893,9 +2899,9 @@
         <v>8</v>
       </c>
       <c r="C36" s="12"/>
-      <c r="D36" s="110"/>
-      <c r="E36" s="113"/>
-      <c r="F36" s="110"/>
+      <c r="D36" s="135"/>
+      <c r="E36" s="126"/>
+      <c r="F36" s="135"/>
       <c r="G36" s="22"/>
       <c r="H36" s="4"/>
       <c r="I36" s="10"/>
@@ -2905,9 +2911,9 @@
         <v>9</v>
       </c>
       <c r="C37" s="12"/>
-      <c r="D37" s="111"/>
-      <c r="E37" s="118"/>
-      <c r="F37" s="111"/>
+      <c r="D37" s="133"/>
+      <c r="E37" s="131"/>
+      <c r="F37" s="133"/>
       <c r="G37" s="14"/>
       <c r="H37" s="4"/>
       <c r="I37" s="10"/>
@@ -2917,9 +2923,9 @@
         <v>10</v>
       </c>
       <c r="C38" s="28"/>
-      <c r="D38" s="111"/>
-      <c r="E38" s="118"/>
-      <c r="F38" s="111"/>
+      <c r="D38" s="133"/>
+      <c r="E38" s="131"/>
+      <c r="F38" s="133"/>
       <c r="G38" s="33"/>
       <c r="H38" s="4"/>
       <c r="I38" s="10"/>
@@ -2929,9 +2935,9 @@
         <v>11</v>
       </c>
       <c r="C39" s="28"/>
-      <c r="D39" s="112"/>
-      <c r="E39" s="114"/>
-      <c r="F39" s="112"/>
+      <c r="D39" s="136"/>
+      <c r="E39" s="127"/>
+      <c r="F39" s="136"/>
       <c r="G39" s="33"/>
       <c r="H39" s="4"/>
       <c r="I39" s="10"/>
@@ -2944,9 +2950,9 @@
         <v>12</v>
       </c>
       <c r="C40" s="19"/>
-      <c r="D40" s="110"/>
-      <c r="E40" s="113"/>
-      <c r="F40" s="110"/>
+      <c r="D40" s="135"/>
+      <c r="E40" s="126"/>
+      <c r="F40" s="135"/>
       <c r="G40" s="22"/>
       <c r="H40" s="4"/>
       <c r="I40" s="10"/>
@@ -2956,9 +2962,9 @@
         <v>13</v>
       </c>
       <c r="C41" s="19"/>
-      <c r="D41" s="112"/>
-      <c r="E41" s="114"/>
-      <c r="F41" s="112"/>
+      <c r="D41" s="136"/>
+      <c r="E41" s="127"/>
+      <c r="F41" s="136"/>
       <c r="G41" s="22"/>
       <c r="H41" s="4"/>
       <c r="I41" s="10"/>
@@ -3009,11 +3015,11 @@
       <c r="I46" s="10"/>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="F47" s="109" t="s">
-        <v>30</v>
-      </c>
-      <c r="G47" s="109"/>
-      <c r="H47" s="109"/>
+      <c r="F47" s="138" t="s">
+        <v>31</v>
+      </c>
+      <c r="G47" s="137"/>
+      <c r="H47" s="137"/>
       <c r="I47" s="10"/>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.2">
@@ -3027,6 +3033,24 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E36:E39"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="E29:E33"/>
+    <mergeCell ref="F29:F33"/>
+    <mergeCell ref="F36:F39"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:H5"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="D26:G27"/>
     <mergeCell ref="B27:C27"/>
@@ -3036,31 +3060,13 @@
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A5:H5"/>
     <mergeCell ref="G14:G15"/>
     <mergeCell ref="G16:G17"/>
-    <mergeCell ref="E36:E39"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="E29:E33"/>
-    <mergeCell ref="F29:F33"/>
-    <mergeCell ref="F36:F39"/>
-    <mergeCell ref="F40:F41"/>
     <mergeCell ref="F18:F19"/>
     <mergeCell ref="F16:F17"/>
     <mergeCell ref="F20:F21"/>
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="D36:D39"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D40:D41"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
